--- a/inst/extdata/expt_smry_raneff.xlsx
+++ b/inst/extdata/expt_smry_raneff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1144,12 +1144,6 @@
       </gradientFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -1208,6 +1202,12 @@
           <color theme="3" tint="0.40000610370189521"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -1498,67 +1498,22 @@
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1579,25 +1534,70 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="39" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="27" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1934,9 +1934,9 @@
   <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,13 +1980,13 @@
       <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="45" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="12" t="s">
@@ -2013,23 +2013,23 @@
       <c r="Q1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="V1" s="35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="H2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="46">
         <v>1</v>
       </c>
       <c r="J2" s="19"/>
@@ -2081,15 +2081,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
       <c r="E3" s="16"/>
       <c r="F3" s="18"/>
       <c r="G3" s="17" t="s">
@@ -2098,7 +2096,7 @@
       <c r="H3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="46">
         <v>7</v>
       </c>
       <c r="J3" s="19"/>
@@ -2129,15 +2127,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="18"/>
       <c r="G4" s="14" t="s">
@@ -2146,7 +2142,7 @@
       <c r="H4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="46">
         <v>1</v>
       </c>
       <c r="J4" s="24"/>
@@ -2177,15 +2173,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
       <c r="E5" s="16"/>
       <c r="F5" s="18"/>
       <c r="G5" s="14" t="s">
@@ -2194,7 +2188,7 @@
       <c r="H5" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="46">
         <v>1</v>
       </c>
       <c r="J5" s="24"/>
@@ -2225,15 +2219,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
       <c r="G6" s="14" t="s">
@@ -2242,7 +2234,7 @@
       <c r="H6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="46">
         <v>7</v>
       </c>
       <c r="J6" s="24"/>
@@ -2273,15 +2265,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="F7" s="18"/>
       <c r="G7" s="14" t="s">
@@ -2290,7 +2280,7 @@
       <c r="H7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="46">
         <v>1</v>
       </c>
       <c r="J7" s="24"/>
@@ -2321,15 +2311,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="18"/>
       <c r="G8" s="14" t="s">
@@ -2338,7 +2326,7 @@
       <c r="H8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="46">
         <v>7</v>
       </c>
       <c r="J8" s="24"/>
@@ -2369,15 +2357,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="F9" s="18"/>
       <c r="G9" s="14" t="s">
@@ -2386,7 +2372,7 @@
       <c r="H9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="46">
         <v>7</v>
       </c>
       <c r="J9" s="24"/>
@@ -2417,15 +2403,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
       <c r="G10" s="28" t="s">
@@ -2434,7 +2418,7 @@
       <c r="H10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="46">
         <v>1</v>
       </c>
       <c r="J10" s="29"/>
@@ -2465,15 +2449,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="14">
         <v>131</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
       <c r="G11" s="28" t="s">
@@ -2482,7 +2464,7 @@
       <c r="H11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="46">
         <v>7</v>
       </c>
       <c r="J11" s="29"/>
@@ -2513,491 +2495,473 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="48">
         <v>126</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="49">
         <v>2</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="49">
         <v>1</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36" t="s">
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="53">
         <v>2</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39" t="s">
+      <c r="L12" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="33" t="s">
+      <c r="Q12" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="53">
         <v>8</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="L13" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39" t="s">
+      <c r="L13" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="42" t="s">
+      <c r="O13" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="43" t="s">
+      <c r="P13" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="Q13" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="33" t="s">
+      <c r="Q13" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="44" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="53">
         <v>2</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46" t="s">
+      <c r="J14" s="62"/>
+      <c r="K14" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46" t="s">
+      <c r="L14" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="46" t="s">
+      <c r="P14" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="33" t="s">
+      <c r="Q14" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="44" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="53">
         <v>2</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46" t="s">
+      <c r="J15" s="62"/>
+      <c r="K15" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46" t="s">
+      <c r="L15" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="46" t="s">
+      <c r="P15" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="33" t="s">
+      <c r="Q15" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="44" t="s">
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="53">
         <v>8</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46" t="s">
+      <c r="J16" s="62"/>
+      <c r="K16" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46" t="s">
+      <c r="L16" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="48" t="s">
+      <c r="O16" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="49" t="s">
+      <c r="P16" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="Q16" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="33" t="s">
+      <c r="Q16" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="44" t="s">
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="53">
         <v>2</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46" t="s">
+      <c r="J17" s="62"/>
+      <c r="K17" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46" t="s">
+      <c r="L17" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="O17" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="46" t="s">
+      <c r="P17" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="33" t="s">
+      <c r="Q17" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="44" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="53">
         <v>8</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46" t="s">
+      <c r="J18" s="62"/>
+      <c r="K18" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46" t="s">
+      <c r="L18" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="48" t="s">
+      <c r="O18" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="49" t="s">
+      <c r="P18" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="Q18" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="33" t="s">
+      <c r="Q18" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="44" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="53">
         <v>8</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46" t="s">
+      <c r="J19" s="62"/>
+      <c r="K19" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46" t="s">
+      <c r="L19" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="48" t="s">
+      <c r="O19" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="49" t="s">
+      <c r="P19" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="33" t="s">
+      <c r="Q19" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="44" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="53">
         <v>2</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46" t="s">
+      <c r="J20" s="62"/>
+      <c r="K20" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46" t="s">
+      <c r="L20" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="O20" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="46" t="s">
+      <c r="P20" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="Q20" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="33" t="s">
+      <c r="Q20" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="48">
         <v>131</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="44" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="53">
         <v>8</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46" t="s">
+      <c r="J21" s="62"/>
+      <c r="K21" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L21" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46" t="s">
+      <c r="L21" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="48" t="s">
+      <c r="O21" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="Q21" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="33" t="s">
+      <c r="Q21" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="48" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>93</v>
       </c>
@@ -3018,11 +2982,11 @@
       <c r="H22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="46">
         <v>3</v>
       </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56" t="s">
+      <c r="J22" s="39"/>
+      <c r="K22" s="39" t="s">
         <v>120</v>
       </c>
       <c r="L22" s="20" t="s">
@@ -3049,15 +3013,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="18"/>
       <c r="G23" s="17" t="s">
@@ -3066,11 +3028,11 @@
       <c r="H23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="46">
         <v>9</v>
       </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56" t="s">
+      <c r="J23" s="39"/>
+      <c r="K23" s="39" t="s">
         <v>120</v>
       </c>
       <c r="L23" s="23" t="s">
@@ -3097,15 +3059,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
       <c r="E24" s="16"/>
       <c r="F24" s="18"/>
       <c r="G24" s="14" t="s">
@@ -3114,11 +3074,11 @@
       <c r="H24" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="46">
         <v>3</v>
       </c>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57" t="s">
+      <c r="J24" s="40"/>
+      <c r="K24" s="40" t="s">
         <v>120</v>
       </c>
       <c r="L24" s="25" t="s">
@@ -3145,15 +3105,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="18"/>
       <c r="G25" s="14" t="s">
@@ -3162,11 +3120,11 @@
       <c r="H25" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="46">
         <v>3</v>
       </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40" t="s">
         <v>120</v>
       </c>
       <c r="L25" s="25" t="s">
@@ -3193,15 +3151,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="18"/>
       <c r="G26" s="14" t="s">
@@ -3210,11 +3166,11 @@
       <c r="H26" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="46">
         <v>9</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57" t="s">
+      <c r="J26" s="40"/>
+      <c r="K26" s="40" t="s">
         <v>120</v>
       </c>
       <c r="L26" s="27" t="s">
@@ -3241,15 +3197,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="18"/>
       <c r="G27" s="14" t="s">
@@ -3258,11 +3212,11 @@
       <c r="H27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="46">
         <v>3</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57" t="s">
+      <c r="J27" s="40"/>
+      <c r="K27" s="40" t="s">
         <v>120</v>
       </c>
       <c r="L27" s="25" t="s">
@@ -3289,15 +3243,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="18"/>
       <c r="G28" s="14" t="s">
@@ -3306,11 +3258,11 @@
       <c r="H28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="46">
         <v>9</v>
       </c>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57" t="s">
+      <c r="J28" s="40"/>
+      <c r="K28" s="40" t="s">
         <v>120</v>
       </c>
       <c r="L28" s="27" t="s">
@@ -3337,15 +3289,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
       <c r="G29" s="14" t="s">
@@ -3354,11 +3304,11 @@
       <c r="H29" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="68">
+      <c r="I29" s="46">
         <v>9</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57" t="s">
+      <c r="J29" s="40"/>
+      <c r="K29" s="40" t="s">
         <v>120</v>
       </c>
       <c r="L29" s="27" t="s">
@@ -3385,15 +3335,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
       <c r="E30" s="16"/>
       <c r="F30" s="18"/>
       <c r="G30" s="28" t="s">
@@ -3402,11 +3350,11 @@
       <c r="H30" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="68">
+      <c r="I30" s="46">
         <v>3</v>
       </c>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58" t="s">
+      <c r="J30" s="41"/>
+      <c r="K30" s="41" t="s">
         <v>120</v>
       </c>
       <c r="L30" s="30" t="s">
@@ -3433,15 +3381,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B31" s="14">
         <v>131</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
       <c r="E31" s="16"/>
       <c r="F31" s="18"/>
       <c r="G31" s="28" t="s">
@@ -3450,11 +3396,11 @@
       <c r="H31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="68">
+      <c r="I31" s="46">
         <v>9</v>
       </c>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58" t="s">
+      <c r="J31" s="41"/>
+      <c r="K31" s="41" t="s">
         <v>120</v>
       </c>
       <c r="L31" s="32" t="s">
@@ -3481,491 +3427,473 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="48">
         <v>126</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="49">
         <v>4</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="49">
         <v>1</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36" t="s">
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="53">
         <v>4</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38" t="s">
+      <c r="J32" s="52"/>
+      <c r="K32" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="L32" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39" t="s">
+      <c r="L32" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="O32" s="38" t="s">
+      <c r="O32" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="P32" s="39" t="s">
+      <c r="P32" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="Q32" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="33" t="s">
+      <c r="Q32" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+    <row r="33" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="36" t="s">
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="53">
         <v>10</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38" t="s">
+      <c r="J33" s="52"/>
+      <c r="K33" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="L33" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39" t="s">
+      <c r="L33" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="O33" s="42" t="s">
+      <c r="O33" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="P33" s="43" t="s">
+      <c r="P33" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="Q33" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="33" t="s">
+      <c r="Q33" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+    <row r="34" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="44" t="s">
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="53">
         <v>4</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45" t="s">
+      <c r="J34" s="61"/>
+      <c r="K34" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="L34" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46" t="s">
+      <c r="L34" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="P34" s="46" t="s">
+      <c r="P34" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="Q34" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="33" t="s">
+      <c r="Q34" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="44" t="s">
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="53">
         <v>4</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45" t="s">
+      <c r="J35" s="61"/>
+      <c r="K35" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="L35" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46" t="s">
+      <c r="L35" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="45" t="s">
+      <c r="O35" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="P35" s="46" t="s">
+      <c r="P35" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="Q35" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="33" t="s">
+      <c r="Q35" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="44" t="s">
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="53">
         <v>10</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45" t="s">
+      <c r="J36" s="61"/>
+      <c r="K36" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="L36" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46" t="s">
+      <c r="L36" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O36" s="48" t="s">
+      <c r="O36" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="P36" s="49" t="s">
+      <c r="P36" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="Q36" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="33" t="s">
+      <c r="Q36" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="44" t="s">
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="68">
+      <c r="I37" s="53">
         <v>4</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45" t="s">
+      <c r="J37" s="61"/>
+      <c r="K37" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="L37" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46" t="s">
+      <c r="L37" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O37" s="45" t="s">
+      <c r="O37" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="P37" s="46" t="s">
+      <c r="P37" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="Q37" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="33" t="s">
+      <c r="Q37" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+    <row r="38" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="44" t="s">
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="I38" s="68">
+      <c r="I38" s="53">
         <v>10</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45" t="s">
+      <c r="J38" s="61"/>
+      <c r="K38" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="L38" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46" t="s">
+      <c r="L38" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O38" s="48" t="s">
+      <c r="O38" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="P38" s="49" t="s">
+      <c r="P38" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="Q38" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="33" t="s">
+      <c r="Q38" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+    <row r="39" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="44" t="s">
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="48" t="s">
+      <c r="H39" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="I39" s="68">
+      <c r="I39" s="53">
         <v>10</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45" t="s">
+      <c r="J39" s="61"/>
+      <c r="K39" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="L39" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46" t="s">
+      <c r="L39" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O39" s="48" t="s">
+      <c r="O39" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="P39" s="49" t="s">
+      <c r="P39" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="Q39" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="33" t="s">
+      <c r="Q39" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+    <row r="40" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="44" t="s">
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="68">
+      <c r="I40" s="53">
         <v>4</v>
       </c>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45" t="s">
+      <c r="J40" s="61"/>
+      <c r="K40" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="L40" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46" t="s">
+      <c r="L40" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O40" s="45" t="s">
+      <c r="O40" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="P40" s="46" t="s">
+      <c r="P40" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="Q40" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="33" t="s">
+      <c r="Q40" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+    <row r="41" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="48">
         <v>131</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="44" t="s">
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="68">
+      <c r="I41" s="53">
         <v>10</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45" t="s">
+      <c r="J41" s="61"/>
+      <c r="K41" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="L41" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46" t="s">
+      <c r="L41" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O41" s="48" t="s">
+      <c r="O41" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="P41" s="49" t="s">
+      <c r="P41" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="Q41" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="33" t="s">
+      <c r="Q41" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="48" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>67</v>
       </c>
@@ -3986,11 +3914,11 @@
       <c r="H42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I42" s="67">
+      <c r="I42" s="46">
         <v>5</v>
       </c>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59" t="s">
+      <c r="J42" s="42"/>
+      <c r="K42" s="42" t="s">
         <v>121</v>
       </c>
       <c r="L42" s="20" t="s">
@@ -4017,15 +3945,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
       <c r="E43" s="16"/>
       <c r="F43" s="18"/>
       <c r="G43" s="17" t="s">
@@ -4034,11 +3960,11 @@
       <c r="H43" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="67">
+      <c r="I43" s="46">
         <v>11</v>
       </c>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59" t="s">
+      <c r="J43" s="42"/>
+      <c r="K43" s="42" t="s">
         <v>121</v>
       </c>
       <c r="L43" s="23" t="s">
@@ -4065,15 +3991,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
       <c r="E44" s="16"/>
       <c r="F44" s="18"/>
       <c r="G44" s="14" t="s">
@@ -4082,11 +4006,11 @@
       <c r="H44" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I44" s="67">
+      <c r="I44" s="46">
         <v>5</v>
       </c>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60" t="s">
+      <c r="J44" s="43"/>
+      <c r="K44" s="43" t="s">
         <v>121</v>
       </c>
       <c r="L44" s="25" t="s">
@@ -4113,15 +4037,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
       <c r="E45" s="16"/>
       <c r="F45" s="18"/>
       <c r="G45" s="14" t="s">
@@ -4130,11 +4052,11 @@
       <c r="H45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="46">
         <v>5</v>
       </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60" t="s">
+      <c r="J45" s="43"/>
+      <c r="K45" s="43" t="s">
         <v>121</v>
       </c>
       <c r="L45" s="25" t="s">
@@ -4161,15 +4083,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
       <c r="E46" s="16"/>
       <c r="F46" s="18"/>
       <c r="G46" s="14" t="s">
@@ -4178,11 +4098,11 @@
       <c r="H46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="67">
+      <c r="I46" s="46">
         <v>11</v>
       </c>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60" t="s">
+      <c r="J46" s="43"/>
+      <c r="K46" s="43" t="s">
         <v>121</v>
       </c>
       <c r="L46" s="27" t="s">
@@ -4209,15 +4129,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
       <c r="E47" s="16"/>
       <c r="F47" s="18"/>
       <c r="G47" s="14" t="s">
@@ -4226,11 +4144,11 @@
       <c r="H47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="68">
+      <c r="I47" s="46">
         <v>5</v>
       </c>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60" t="s">
+      <c r="J47" s="43"/>
+      <c r="K47" s="43" t="s">
         <v>121</v>
       </c>
       <c r="L47" s="25" t="s">
@@ -4257,15 +4175,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
       <c r="E48" s="16"/>
       <c r="F48" s="18"/>
       <c r="G48" s="14" t="s">
@@ -4274,11 +4190,11 @@
       <c r="H48" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="68">
+      <c r="I48" s="46">
         <v>11</v>
       </c>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60" t="s">
+      <c r="J48" s="43"/>
+      <c r="K48" s="43" t="s">
         <v>121</v>
       </c>
       <c r="L48" s="27" t="s">
@@ -4305,15 +4221,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
       <c r="G49" s="14" t="s">
@@ -4322,11 +4236,11 @@
       <c r="H49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="68">
+      <c r="I49" s="46">
         <v>11</v>
       </c>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60" t="s">
+      <c r="J49" s="43"/>
+      <c r="K49" s="43" t="s">
         <v>121</v>
       </c>
       <c r="L49" s="27" t="s">
@@ -4353,15 +4267,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
       <c r="E50" s="16"/>
       <c r="F50" s="18"/>
       <c r="G50" s="28" t="s">
@@ -4370,11 +4282,11 @@
       <c r="H50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="68">
+      <c r="I50" s="46">
         <v>5</v>
       </c>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61" t="s">
+      <c r="J50" s="44"/>
+      <c r="K50" s="44" t="s">
         <v>121</v>
       </c>
       <c r="L50" s="30" t="s">
@@ -4401,15 +4313,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="14">
         <v>131</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
       <c r="E51" s="16"/>
       <c r="F51" s="18"/>
       <c r="G51" s="28" t="s">
@@ -4418,11 +4328,11 @@
       <c r="H51" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="68">
+      <c r="I51" s="46">
         <v>11</v>
       </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61" t="s">
+      <c r="J51" s="44"/>
+      <c r="K51" s="44" t="s">
         <v>121</v>
       </c>
       <c r="L51" s="32" t="s">
@@ -4449,487 +4359,469 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+    <row r="52" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="48">
         <v>126</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="49">
         <v>6</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="49">
         <v>1</v>
       </c>
-      <c r="E52" s="35"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="36" t="s">
+      <c r="E52" s="50"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="38" t="s">
+      <c r="H52" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="53">
         <v>6</v>
       </c>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62" t="s">
+      <c r="J52" s="67"/>
+      <c r="K52" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="L52" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39" t="s">
+      <c r="L52" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="38" t="s">
+      <c r="O52" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="P52" s="39" t="s">
+      <c r="P52" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="Q52" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="33" t="s">
+      <c r="Q52" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="R52" s="47"/>
+      <c r="S52" s="47"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+    <row r="53" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="36" t="s">
+      <c r="E53" s="50"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="42" t="s">
+      <c r="H53" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="67">
+      <c r="I53" s="53">
         <v>12</v>
       </c>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62" t="s">
+      <c r="J53" s="67"/>
+      <c r="K53" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="L53" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39" t="s">
+      <c r="L53" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="O53" s="42" t="s">
+      <c r="O53" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="P53" s="43" t="s">
+      <c r="P53" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="Q53" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="33" t="s">
+      <c r="Q53" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
+    <row r="54" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="44" t="s">
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="45" t="s">
+      <c r="H54" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="I54" s="67">
+      <c r="I54" s="53">
         <v>6</v>
       </c>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63" t="s">
+      <c r="J54" s="68"/>
+      <c r="K54" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46" t="s">
+      <c r="L54" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O54" s="45" t="s">
+      <c r="O54" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="P54" s="46" t="s">
+      <c r="P54" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="Q54" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="33" t="s">
+      <c r="Q54" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="64"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
+    <row r="55" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="44" t="s">
+      <c r="E55" s="50"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="H55" s="45" t="s">
+      <c r="H55" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="67">
+      <c r="I55" s="53">
         <v>6</v>
       </c>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63" t="s">
+      <c r="J55" s="68"/>
+      <c r="K55" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="L55" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46" t="s">
+      <c r="L55" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O55" s="45" t="s">
+      <c r="O55" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="P55" s="46" t="s">
+      <c r="P55" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="Q55" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="33" t="s">
+      <c r="Q55" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="64"/>
+      <c r="U55" s="57"/>
+      <c r="V55" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="44" t="s">
+    <row r="56" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="44" t="s">
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="H56" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="67">
+      <c r="I56" s="53">
         <v>12</v>
       </c>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63" t="s">
+      <c r="J56" s="68"/>
+      <c r="K56" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="L56" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46" t="s">
+      <c r="L56" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O56" s="48" t="s">
+      <c r="O56" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="P56" s="49" t="s">
+      <c r="P56" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="Q56" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="33" t="s">
+      <c r="Q56" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="64"/>
+      <c r="U56" s="57"/>
+      <c r="V56" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
+    <row r="57" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="44" t="s">
+      <c r="E57" s="50"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="H57" s="45" t="s">
+      <c r="H57" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="I57" s="68">
+      <c r="I57" s="53">
         <v>6</v>
       </c>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63" t="s">
+      <c r="J57" s="68"/>
+      <c r="K57" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="L57" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46" t="s">
+      <c r="L57" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O57" s="45" t="s">
+      <c r="O57" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="P57" s="46" t="s">
+      <c r="P57" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="Q57" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R57" s="44"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="33" t="s">
+      <c r="Q57" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="64"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
+    <row r="58" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="44" t="s">
+      <c r="E58" s="50"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="H58" s="48" t="s">
+      <c r="H58" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="I58" s="68">
+      <c r="I58" s="53">
         <v>12</v>
       </c>
-      <c r="J58" s="63"/>
-      <c r="K58" s="63" t="s">
+      <c r="J58" s="68"/>
+      <c r="K58" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="L58" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46" t="s">
+      <c r="L58" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O58" s="48" t="s">
+      <c r="O58" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="49" t="s">
+      <c r="P58" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="Q58" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R58" s="44"/>
-      <c r="S58" s="44"/>
-      <c r="T58" s="47"/>
-      <c r="U58" s="41"/>
-      <c r="V58" s="33" t="s">
+      <c r="Q58" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="64"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
+    <row r="59" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="44" t="s">
+      <c r="E59" s="50"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="48" t="s">
+      <c r="H59" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="I59" s="68">
+      <c r="I59" s="53">
         <v>12</v>
       </c>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63" t="s">
+      <c r="J59" s="68"/>
+      <c r="K59" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="L59" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46" t="s">
+      <c r="L59" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="48" t="s">
+      <c r="O59" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="P59" s="49" t="s">
+      <c r="P59" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="Q59" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R59" s="44"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="41"/>
-      <c r="V59" s="33" t="s">
+      <c r="Q59" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="64"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
+    <row r="60" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="44" t="s">
+      <c r="E60" s="50"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H60" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="I60" s="68">
+      <c r="I60" s="53">
         <v>6</v>
       </c>
-      <c r="J60" s="63"/>
-      <c r="K60" s="63" t="s">
+      <c r="J60" s="68"/>
+      <c r="K60" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="L60" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46" t="s">
+      <c r="L60" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O60" s="45" t="s">
+      <c r="O60" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="P60" s="46" t="s">
+      <c r="P60" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="Q60" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="R60" s="44"/>
-      <c r="S60" s="44"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="33" t="s">
+      <c r="Q60" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
+    <row r="61" spans="1:22" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B61" s="48">
         <v>131</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="44" t="s">
+      <c r="E61" s="50"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="H61" s="48" t="s">
+      <c r="H61" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="I61" s="68">
+      <c r="I61" s="53">
         <v>12</v>
       </c>
-      <c r="J61" s="63"/>
-      <c r="K61" s="63" t="s">
+      <c r="J61" s="68"/>
+      <c r="K61" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="L61" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46" t="s">
+      <c r="L61" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O61" s="48" t="s">
+      <c r="O61" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="P61" s="49" t="s">
+      <c r="P61" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="Q61" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="R61" s="44"/>
-      <c r="S61" s="44"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="33" t="s">
+      <c r="Q61" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="48" t="s">
         <v>36</v>
       </c>
     </row>
